--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>1.47675644660132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10.02438846473383</v>
+        <v>10.02438846473382</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>-0.004010901693212719</v>
@@ -627,7 +627,7 @@
         <v>0.1209252321342728</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7471245081636909</v>
+        <v>0.7471245081636907</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.870234727746841</v>
+        <v>-4.400507655873248</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.669383031614125</v>
+        <v>-3.517968478251128</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.13189868063024</v>
+        <v>5.643676680478145</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3550337127562702</v>
+        <v>-0.3255680944025353</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2727406629486693</v>
+        <v>-0.2360039249810986</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3049869816374892</v>
+        <v>0.3625085287625069</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.066393257649242</v>
+        <v>4.766008054436447</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.574827911058985</v>
+        <v>6.238270428935269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.91291478362941</v>
+        <v>14.05813623622619</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.54361625604118</v>
+        <v>0.538644759753764</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6477395804563129</v>
+        <v>0.6217825252227531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.176036663893313</v>
+        <v>1.265713755576903</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.1404391265390234</v>
+        <v>0.07508235391825589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.708400226203177</v>
+        <v>-3.013320834220678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.359283452681383</v>
+        <v>7.745209582767313</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01360561813309826</v>
+        <v>0.0007347836142484486</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1899350151494583</v>
+        <v>-0.2067258475075486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4099138897546913</v>
+        <v>0.4278429892451692</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.84013332196412</v>
+        <v>11.06010491404983</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.265071810063578</v>
+        <v>7.668116885989089</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.494101602055</v>
+        <v>17.37552504092834</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9989298005757749</v>
+        <v>1.025773170474214</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7839703057447419</v>
+        <v>0.822310302861286</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.376299516792272</v>
+        <v>1.317986105022274</v>
       </c>
     </row>
     <row r="10">
@@ -791,7 +791,7 @@
         <v>0.9449379473322601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1.130785203599905</v>
+        <v>1.130785203599906</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4436504710524126</v>
+        <v>-0.3259822125928007</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.771335876185463</v>
+        <v>7.203157805724474</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.48636812183843</v>
+        <v>13.98393288597444</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.01752808087035157</v>
+        <v>-0.02328850327761043</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3553861056818962</v>
+        <v>0.3767814420790918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6614921287995316</v>
+        <v>0.6650997428790929</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.5239000238133</v>
+        <v>13.28067862714844</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>24.3393702377381</v>
+        <v>23.77967901133261</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27.35367511365438</v>
+        <v>26.8862627881691</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.6837111063871127</v>
+        <v>0.6276661802555284</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.71435826469275</v>
+        <v>1.612946034074857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.744969330747453</v>
+        <v>1.68513440861133</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>2.999919699516027</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6.8405379879803</v>
+        <v>6.840537987980294</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.057869618467991</v>
@@ -873,7 +873,7 @@
         <v>0.180833014119789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3098637015674992</v>
+        <v>0.3098637015674989</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.463707658913302</v>
+        <v>-2.528975145291649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5606969944225693</v>
+        <v>-0.6713400699473122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.327406423683342</v>
+        <v>3.099025137498707</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1197030994229765</v>
+        <v>-0.12342091484922</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02975308609159614</v>
+        <v>-0.03550897401393074</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1375221689986998</v>
+        <v>0.1308832539065656</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.897219589978365</v>
+        <v>5.143060729935176</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.958052112978494</v>
+        <v>6.598007591075616</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.40843557389111</v>
+        <v>10.65582470244912</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2673619604971629</v>
+        <v>0.2795628711434434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4482723726941528</v>
+        <v>0.4376253869178368</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.498723025669952</v>
+        <v>0.5252631811026601</v>
       </c>
     </row>
     <row r="16">
@@ -955,7 +955,7 @@
         <v>0.679065434905558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8525709387183775</v>
+        <v>0.8525709387183777</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>13.52296892167215</v>
+        <v>13.15573895393374</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.124546850714008</v>
+        <v>9.208109889324165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.20909348884285</v>
+        <v>13.1413308060831</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.6228381375795097</v>
+        <v>0.603003268785538</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3983044210552562</v>
+        <v>0.4162292335420964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.532876052293664</v>
+        <v>0.5218145491802227</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.4231031581203</v>
+        <v>23.29972724959534</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>18.28368777924982</v>
+        <v>18.57953384768151</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.44495083434612</v>
+        <v>22.57551348182044</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.477799613151862</v>
+        <v>1.428555323676975</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.006310123923579</v>
+        <v>1.072274860256367</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.200005100914869</v>
+        <v>1.208563752752285</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>28.55834870915785</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25.88009890710519</v>
+        <v>25.8800989071052</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>11.32063627343578</v>
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>30.27372629023056</v>
+        <v>30.21879725314327</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>24.85691907216351</v>
+        <v>25.07848901865136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18.1124502017191</v>
+        <v>18.22837012098071</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>4.379216470790259</v>
+        <v>4.913115920267285</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>4.954082632144603</v>
+        <v>4.82416438895185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.031345901654486</v>
+        <v>1.012079759778989</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>38.63419858615403</v>
+        <v>37.92830278021719</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>31.91227496551786</v>
+        <v>32.05749333248436</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>31.58839732434835</v>
+        <v>31.30308644880723</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>32.01789697337959</v>
+        <v>31.25795474573147</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>27.13135481355302</v>
+        <v>23.20690621609819</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>5.895277132731556</v>
+        <v>5.78828884194564</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>10.68983842625276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.37917295825088</v>
+        <v>14.37917295825087</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.7207219493397878</v>
@@ -1119,7 +1119,7 @@
         <v>0.7145291751520371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7899648971038169</v>
+        <v>0.7899648971038166</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.08127250223906</v>
+        <v>10.15827035582547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.888651648166054</v>
+        <v>8.633364329745651</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.49624855640113</v>
+        <v>12.52186287259974</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.5645573851193141</v>
+        <v>0.5652197781089838</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5566958934483668</v>
+        <v>0.5478393396982169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6466475878082651</v>
+        <v>0.6535627256356362</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.32716772458281</v>
+        <v>14.20612888165491</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.76426454507774</v>
+        <v>12.50975224663028</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.15254575273239</v>
+        <v>16.27750915671727</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.8950378581785829</v>
+        <v>0.9004755472336504</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9016136593934617</v>
+        <v>0.8874775883861751</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.9420979499276938</v>
+        <v>0.9569124584247274</v>
       </c>
     </row>
     <row r="25">
